--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/テーブル設計書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">入会年月日</t>
+    <t xml:space="preserve">登録日時</t>
   </si>
   <si>
     <t xml:space="preserve">joined_at</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">初期値＝現在の日時</t>
   </si>
   <si>
-    <t xml:space="preserve">退会年月日</t>
+    <t xml:space="preserve">削除日時</t>
   </si>
   <si>
     <t xml:space="preserve">canceled_at</t>
@@ -146,22 +146,70 @@
     <t xml:space="preserve">初期値＝false</t>
   </si>
   <si>
-    <t xml:space="preserve">登録日時</t>
+    <t xml:space="preserve">更新日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">published_at</t>
   </si>
   <si>
     <t xml:space="preserve">created_at</t>
   </si>
   <si>
-    <t xml:space="preserve">DATETIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除日時</t>
+    <t xml:space="preserve">TIMESTAMP</t>
   </si>
   <si>
     <t xml:space="preserve">deleted_at</t>
@@ -170,60 +218,6 @@
     <t xml:space="preserve">初期値＝null</t>
   </si>
   <si>
-    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">published_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
   </si>
   <si>
@@ -239,15 +233,9 @@
     <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
   </si>
   <si>
-    <t xml:space="preserve">入荷年月日</t>
-  </si>
-  <si>
     <t xml:space="preserve">added_at</t>
   </si>
   <si>
-    <t xml:space="preserve">廃棄年月日</t>
-  </si>
-  <si>
     <t xml:space="preserve">discarded_at</t>
   </si>
   <si>
@@ -266,7 +254,7 @@
     <t xml:space="preserve">複合主キー、外部キー→資料台帳テーブル.資料ID</t>
   </si>
   <si>
-    <t xml:space="preserve">貸出年月日</t>
+    <t xml:space="preserve">登録日時（貸出年月日）</t>
   </si>
   <si>
     <t xml:space="preserve">lent_at</t>
@@ -278,7 +266,7 @@
     <t xml:space="preserve">return_deadline</t>
   </si>
   <si>
-    <t xml:space="preserve">返却年月日</t>
+    <t xml:space="preserve">削除日時（返却年月日）</t>
   </si>
   <si>
     <t xml:space="preserve">returned_at</t>
@@ -587,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,42 +833,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -920,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -953,10 +907,10 @@
     </row>
     <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -971,15 +925,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -995,31 +949,31 @@
     </row>
     <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1035,10 +989,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1052,10 +1006,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -1067,13 +1021,13 @@
     </row>
     <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7" t="s">
@@ -1086,13 +1040,13 @@
     </row>
     <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7" t="s">
@@ -1105,19 +1059,19 @@
     </row>
     <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1143,7 +1097,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1193,13 +1147,13 @@
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
@@ -1209,15 +1163,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1229,18 +1183,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1256,10 +1210,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1294,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7" t="s">
@@ -1305,42 +1259,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1387,10 +1307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1446,46 +1366,46 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1501,10 +1421,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1518,10 +1438,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1536,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1556,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7" t="s">
@@ -1567,42 +1487,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -1641,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1674,13 +1560,13 @@
     </row>
     <row r="3" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -1690,15 +1576,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1714,13 +1600,13 @@
     </row>
     <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7" t="s">
@@ -1733,13 +1619,13 @@
     </row>
     <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
@@ -1752,19 +1638,19 @@
     </row>
     <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/テーブル設計書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -119,105 +119,111 @@
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
+    <t xml:space="preserve">アクセス権限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録日時（入会年月日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joined_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝現在の日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除日時（退会年月日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canceled_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">published_at</t>
+  </si>
+  <si>
     <t xml:space="preserve">登録日時</t>
   </si>
   <si>
-    <t xml:space="preserve">joined_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝現在の日時</t>
+    <t xml:space="preserve">created_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP</t>
   </si>
   <si>
     <t xml:space="preserve">削除日時</t>
   </si>
   <si>
-    <t xml:space="preserve">canceled_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクセス権限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOLEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATETIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">published_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">deleted_at</t>
   </si>
   <si>
-    <t xml:space="preserve">初期値＝null</t>
-  </si>
-  <si>
     <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
   </si>
   <si>
@@ -233,15 +239,21 @@
     <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
   </si>
   <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録日時（入荷年月日）</t>
+  </si>
+  <si>
     <t xml:space="preserve">added_at</t>
   </si>
   <si>
+    <t xml:space="preserve">削除日時（廃棄年月日）</t>
+  </si>
+  <si>
     <t xml:space="preserve">discarded_at</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
     <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
   </si>
   <si>
@@ -254,16 +266,16 @@
     <t xml:space="preserve">複合主キー、外部キー→資料台帳テーブル.資料ID</t>
   </si>
   <si>
+    <t xml:space="preserve">返却期日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">登録日時（貸出年月日）</t>
   </si>
   <si>
     <t xml:space="preserve">lent_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返却期日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_deadline</t>
   </si>
   <si>
     <t xml:space="preserve">削除日時（返却年月日）</t>
@@ -578,7 +590,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,7 +781,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7" t="s">
@@ -777,33 +789,37 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7" t="s">
@@ -811,28 +827,27 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -857,7 +872,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -907,10 +922,10 @@
     </row>
     <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -925,15 +940,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -949,31 +964,31 @@
     </row>
     <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -989,10 +1004,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1006,10 +1021,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -1021,13 +1036,13 @@
     </row>
     <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7" t="s">
@@ -1035,18 +1050,18 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7" t="s">
@@ -1054,24 +1069,24 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1097,7 +1112,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1147,13 +1162,13 @@
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
@@ -1163,15 +1178,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1183,82 +1198,85 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>255</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1310,7 +1328,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1366,46 +1384,46 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1415,78 +1433,81 @@
         <v>12</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>255</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>255</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1511,7 +1532,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1527,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1560,13 +1581,13 @@
     </row>
     <row r="3" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -1576,15 +1597,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1600,13 +1621,13 @@
     </row>
     <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7" t="s">
@@ -1614,18 +1635,18 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
@@ -1633,24 +1654,24 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
